--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/energy/Documents/research/prep-shot-data/PREP-SHOT/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiany\Desktop\PREP-SHOT\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A908357-9991-CE46-82E5-741797D56730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6D568-6F9F-461C-92CE-193BA12E4EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4860" yWindow="-20940" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -103,9 +103,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,14 +414,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E8F49F-C998-7244-B118-DC6476198953}">
   <dimension ref="A1:F530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -432,8 +437,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -446,8 +451,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
@@ -466,8 +471,8 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>2020</v>
       </c>
       <c r="B4" s="1">
@@ -486,8 +491,8 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>2020</v>
       </c>
       <c r="B5" s="1">
@@ -506,8 +511,8 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
         <v>2020</v>
       </c>
       <c r="B6" s="1">
@@ -526,8 +531,8 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
         <v>2020</v>
       </c>
       <c r="B7" s="1">
@@ -546,8 +551,8 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
       <c r="B8" s="1">
@@ -566,8 +571,8 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <v>2020</v>
       </c>
       <c r="B9" s="1">
@@ -586,8 +591,8 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
         <v>2020</v>
       </c>
       <c r="B10" s="1">
@@ -606,8 +611,8 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
         <v>2020</v>
       </c>
       <c r="B11" s="1">
@@ -626,8 +631,8 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
         <v>2020</v>
       </c>
       <c r="B12" s="1">
@@ -646,8 +651,8 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
         <v>2020</v>
       </c>
       <c r="B13" s="1">
@@ -666,8 +671,8 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
         <v>2020</v>
       </c>
       <c r="B14" s="1">
@@ -686,8 +691,8 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
         <v>2020</v>
       </c>
       <c r="B15" s="1">
@@ -706,8 +711,8 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
         <v>2020</v>
       </c>
       <c r="B16" s="1">
@@ -726,8 +731,8 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
         <v>2020</v>
       </c>
       <c r="B17" s="1">
@@ -746,8 +751,8 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
         <v>2020</v>
       </c>
       <c r="B18" s="1">
@@ -766,8 +771,8 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
         <v>2020</v>
       </c>
       <c r="B19" s="1">
@@ -786,8 +791,8 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
         <v>2020</v>
       </c>
       <c r="B20" s="1">
@@ -806,8 +811,8 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
         <v>2020</v>
       </c>
       <c r="B21" s="1">
@@ -826,8 +831,8 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
         <v>2020</v>
       </c>
       <c r="B22" s="1">
@@ -846,8 +851,8 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
         <v>2020</v>
       </c>
       <c r="B23" s="1">
@@ -866,8 +871,8 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
         <v>2020</v>
       </c>
       <c r="B24" s="1">
@@ -886,8 +891,8 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
         <v>2020</v>
       </c>
       <c r="B25" s="1">
@@ -906,8 +911,8 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
         <v>2020</v>
       </c>
       <c r="B26" s="1">
@@ -926,8 +931,8 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
         <v>2020</v>
       </c>
       <c r="B27" s="1">
@@ -946,8 +951,8 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
         <v>2020</v>
       </c>
       <c r="B28" s="1">
@@ -966,8 +971,8 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
         <v>2020</v>
       </c>
       <c r="B29" s="1">
@@ -986,8 +991,8 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
         <v>2020</v>
       </c>
       <c r="B30" s="1">
@@ -1006,8 +1011,8 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
         <v>2020</v>
       </c>
       <c r="B31" s="1">
@@ -1026,8 +1031,8 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
         <v>2020</v>
       </c>
       <c r="B32" s="1">
@@ -1046,8 +1051,8 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
         <v>2020</v>
       </c>
       <c r="B33" s="1">
@@ -1066,8 +1071,8 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
         <v>2020</v>
       </c>
       <c r="B34" s="1">
@@ -1086,8 +1091,8 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
         <v>2020</v>
       </c>
       <c r="B35" s="1">
@@ -1106,8 +1111,8 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
         <v>2020</v>
       </c>
       <c r="B36" s="1">
@@ -1126,8 +1131,8 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
         <v>2020</v>
       </c>
       <c r="B37" s="1">
@@ -1146,8 +1151,8 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
         <v>2020</v>
       </c>
       <c r="B38" s="1">
@@ -1166,8 +1171,8 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
         <v>2020</v>
       </c>
       <c r="B39" s="1">
@@ -1186,8 +1191,8 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
         <v>2020</v>
       </c>
       <c r="B40" s="1">
@@ -1206,8 +1211,8 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
         <v>2020</v>
       </c>
       <c r="B41" s="1">
@@ -1226,8 +1231,8 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
         <v>2020</v>
       </c>
       <c r="B42" s="1">
@@ -1246,8 +1251,8 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
         <v>2020</v>
       </c>
       <c r="B43" s="1">
@@ -1266,8 +1271,8 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
         <v>2020</v>
       </c>
       <c r="B44" s="1">
@@ -1286,8 +1291,8 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
         <v>2020</v>
       </c>
       <c r="B45" s="1">
@@ -1306,8 +1311,8 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
         <v>2020</v>
       </c>
       <c r="B46" s="1">
@@ -1326,8 +1331,8 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
         <v>2020</v>
       </c>
       <c r="B47" s="1">
@@ -1346,8 +1351,8 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:6">
+      <c r="A48" s="3">
         <v>2020</v>
       </c>
       <c r="B48" s="1">
@@ -1366,8 +1371,8 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:6">
+      <c r="A49" s="3">
         <v>2020</v>
       </c>
       <c r="B49" s="1">
@@ -1386,8 +1391,8 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:6">
+      <c r="A50" s="3">
         <v>2020</v>
       </c>
       <c r="B50" s="1">
@@ -1406,8 +1411,8 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:6">
+      <c r="A51" s="4">
         <v>2021</v>
       </c>
       <c r="B51" s="2">
@@ -1426,8 +1431,8 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" spans="1:6">
+      <c r="A52" s="4">
         <v>2021</v>
       </c>
       <c r="B52" s="2">
@@ -1446,8 +1451,8 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:6">
+      <c r="A53" s="4">
         <v>2021</v>
       </c>
       <c r="B53" s="2">
@@ -1466,8 +1471,8 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" spans="1:6">
+      <c r="A54" s="4">
         <v>2021</v>
       </c>
       <c r="B54" s="2">
@@ -1486,8 +1491,8 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:6">
+      <c r="A55" s="4">
         <v>2021</v>
       </c>
       <c r="B55" s="2">
@@ -1506,8 +1511,8 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" spans="1:6">
+      <c r="A56" s="4">
         <v>2021</v>
       </c>
       <c r="B56" s="2">
@@ -1526,8 +1531,8 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" spans="1:6">
+      <c r="A57" s="4">
         <v>2021</v>
       </c>
       <c r="B57" s="2">
@@ -1546,8 +1551,8 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" spans="1:6">
+      <c r="A58" s="4">
         <v>2021</v>
       </c>
       <c r="B58" s="2">
@@ -1566,8 +1571,8 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" spans="1:6">
+      <c r="A59" s="4">
         <v>2021</v>
       </c>
       <c r="B59" s="2">
@@ -1586,8 +1591,8 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+    <row r="60" spans="1:6">
+      <c r="A60" s="4">
         <v>2021</v>
       </c>
       <c r="B60" s="2">
@@ -1606,8 +1611,8 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" spans="1:6">
+      <c r="A61" s="4">
         <v>2021</v>
       </c>
       <c r="B61" s="2">
@@ -1626,8 +1631,8 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" spans="1:6">
+      <c r="A62" s="4">
         <v>2021</v>
       </c>
       <c r="B62" s="2">
@@ -1646,8 +1651,8 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" spans="1:6">
+      <c r="A63" s="4">
         <v>2021</v>
       </c>
       <c r="B63" s="2">
@@ -1666,8 +1671,8 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="64" spans="1:6">
+      <c r="A64" s="4">
         <v>2021</v>
       </c>
       <c r="B64" s="2">
@@ -1686,8 +1691,8 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" spans="1:6">
+      <c r="A65" s="4">
         <v>2021</v>
       </c>
       <c r="B65" s="2">
@@ -1706,8 +1711,8 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="66" spans="1:6">
+      <c r="A66" s="4">
         <v>2021</v>
       </c>
       <c r="B66" s="2">
@@ -1726,8 +1731,8 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="67" spans="1:6">
+      <c r="A67" s="4">
         <v>2021</v>
       </c>
       <c r="B67" s="2">
@@ -1746,8 +1751,8 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" spans="1:6">
+      <c r="A68" s="4">
         <v>2021</v>
       </c>
       <c r="B68" s="2">
@@ -1766,8 +1771,8 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="69" spans="1:6">
+      <c r="A69" s="4">
         <v>2021</v>
       </c>
       <c r="B69" s="2">
@@ -1786,8 +1791,8 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="70" spans="1:6">
+      <c r="A70" s="4">
         <v>2021</v>
       </c>
       <c r="B70" s="2">
@@ -1806,8 +1811,8 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="71" spans="1:6">
+      <c r="A71" s="4">
         <v>2021</v>
       </c>
       <c r="B71" s="2">
@@ -1826,8 +1831,8 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="72" spans="1:6">
+      <c r="A72" s="4">
         <v>2021</v>
       </c>
       <c r="B72" s="2">
@@ -1846,8 +1851,8 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+    <row r="73" spans="1:6">
+      <c r="A73" s="4">
         <v>2021</v>
       </c>
       <c r="B73" s="2">
@@ -1866,8 +1871,8 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+    <row r="74" spans="1:6">
+      <c r="A74" s="4">
         <v>2021</v>
       </c>
       <c r="B74" s="2">
@@ -1886,8 +1891,8 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+    <row r="75" spans="1:6">
+      <c r="A75" s="4">
         <v>2021</v>
       </c>
       <c r="B75" s="2">
@@ -1906,8 +1911,8 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+    <row r="76" spans="1:6">
+      <c r="A76" s="4">
         <v>2021</v>
       </c>
       <c r="B76" s="2">
@@ -1926,8 +1931,8 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+    <row r="77" spans="1:6">
+      <c r="A77" s="4">
         <v>2021</v>
       </c>
       <c r="B77" s="2">
@@ -1946,8 +1951,8 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+    <row r="78" spans="1:6">
+      <c r="A78" s="4">
         <v>2021</v>
       </c>
       <c r="B78" s="2">
@@ -1966,8 +1971,8 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="79" spans="1:6">
+      <c r="A79" s="4">
         <v>2021</v>
       </c>
       <c r="B79" s="2">
@@ -1986,8 +1991,8 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    <row r="80" spans="1:6">
+      <c r="A80" s="4">
         <v>2021</v>
       </c>
       <c r="B80" s="2">
@@ -2006,8 +2011,8 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+    <row r="81" spans="1:6">
+      <c r="A81" s="4">
         <v>2021</v>
       </c>
       <c r="B81" s="2">
@@ -2026,8 +2031,8 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+    <row r="82" spans="1:6">
+      <c r="A82" s="4">
         <v>2021</v>
       </c>
       <c r="B82" s="2">
@@ -2046,8 +2051,8 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="83" spans="1:6">
+      <c r="A83" s="4">
         <v>2021</v>
       </c>
       <c r="B83" s="2">
@@ -2066,8 +2071,8 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+    <row r="84" spans="1:6">
+      <c r="A84" s="4">
         <v>2021</v>
       </c>
       <c r="B84" s="2">
@@ -2086,8 +2091,8 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="85" spans="1:6">
+      <c r="A85" s="4">
         <v>2021</v>
       </c>
       <c r="B85" s="2">
@@ -2106,8 +2111,8 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+    <row r="86" spans="1:6">
+      <c r="A86" s="4">
         <v>2021</v>
       </c>
       <c r="B86" s="2">
@@ -2126,8 +2131,8 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+    <row r="87" spans="1:6">
+      <c r="A87" s="4">
         <v>2021</v>
       </c>
       <c r="B87" s="2">
@@ -2146,8 +2151,8 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+    <row r="88" spans="1:6">
+      <c r="A88" s="4">
         <v>2021</v>
       </c>
       <c r="B88" s="2">
@@ -2166,8 +2171,8 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+    <row r="89" spans="1:6">
+      <c r="A89" s="4">
         <v>2021</v>
       </c>
       <c r="B89" s="2">
@@ -2186,8 +2191,8 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+    <row r="90" spans="1:6">
+      <c r="A90" s="4">
         <v>2021</v>
       </c>
       <c r="B90" s="2">
@@ -2206,8 +2211,8 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+    <row r="91" spans="1:6">
+      <c r="A91" s="4">
         <v>2021</v>
       </c>
       <c r="B91" s="2">
@@ -2226,8 +2231,8 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+    <row r="92" spans="1:6">
+      <c r="A92" s="4">
         <v>2021</v>
       </c>
       <c r="B92" s="2">
@@ -2246,8 +2251,8 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+    <row r="93" spans="1:6">
+      <c r="A93" s="4">
         <v>2021</v>
       </c>
       <c r="B93" s="2">
@@ -2266,8 +2271,8 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+    <row r="94" spans="1:6">
+      <c r="A94" s="4">
         <v>2021</v>
       </c>
       <c r="B94" s="2">
@@ -2286,8 +2291,8 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+    <row r="95" spans="1:6">
+      <c r="A95" s="4">
         <v>2021</v>
       </c>
       <c r="B95" s="2">
@@ -2306,8 +2311,8 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+    <row r="96" spans="1:6">
+      <c r="A96" s="4">
         <v>2021</v>
       </c>
       <c r="B96" s="2">
@@ -2326,8 +2331,8 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+    <row r="97" spans="1:6">
+      <c r="A97" s="4">
         <v>2021</v>
       </c>
       <c r="B97" s="2">
@@ -2346,8 +2351,8 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+    <row r="98" spans="1:6">
+      <c r="A98" s="4">
         <v>2021</v>
       </c>
       <c r="B98" s="2">
@@ -2366,8 +2371,8 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="99" spans="1:6">
+      <c r="A99" s="4">
         <v>2022</v>
       </c>
       <c r="B99" s="2">
@@ -2386,8 +2391,8 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+    <row r="100" spans="1:6">
+      <c r="A100" s="4">
         <v>2022</v>
       </c>
       <c r="B100" s="2">
@@ -2406,8 +2411,8 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+    <row r="101" spans="1:6">
+      <c r="A101" s="4">
         <v>2022</v>
       </c>
       <c r="B101" s="2">
@@ -2426,8 +2431,8 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+    <row r="102" spans="1:6">
+      <c r="A102" s="4">
         <v>2022</v>
       </c>
       <c r="B102" s="2">
@@ -2446,8 +2451,8 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+    <row r="103" spans="1:6">
+      <c r="A103" s="4">
         <v>2022</v>
       </c>
       <c r="B103" s="2">
@@ -2466,8 +2471,8 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+    <row r="104" spans="1:6">
+      <c r="A104" s="4">
         <v>2022</v>
       </c>
       <c r="B104" s="2">
@@ -2486,8 +2491,8 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+    <row r="105" spans="1:6">
+      <c r="A105" s="4">
         <v>2022</v>
       </c>
       <c r="B105" s="2">
@@ -2506,8 +2511,8 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+    <row r="106" spans="1:6">
+      <c r="A106" s="4">
         <v>2022</v>
       </c>
       <c r="B106" s="2">
@@ -2526,8 +2531,8 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+    <row r="107" spans="1:6">
+      <c r="A107" s="4">
         <v>2022</v>
       </c>
       <c r="B107" s="2">
@@ -2546,8 +2551,8 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+    <row r="108" spans="1:6">
+      <c r="A108" s="4">
         <v>2022</v>
       </c>
       <c r="B108" s="2">
@@ -2566,8 +2571,8 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+    <row r="109" spans="1:6">
+      <c r="A109" s="4">
         <v>2022</v>
       </c>
       <c r="B109" s="2">
@@ -2586,8 +2591,8 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+    <row r="110" spans="1:6">
+      <c r="A110" s="4">
         <v>2022</v>
       </c>
       <c r="B110" s="2">
@@ -2606,8 +2611,8 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+    <row r="111" spans="1:6">
+      <c r="A111" s="4">
         <v>2022</v>
       </c>
       <c r="B111" s="2">
@@ -2626,8 +2631,8 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+    <row r="112" spans="1:6">
+      <c r="A112" s="4">
         <v>2022</v>
       </c>
       <c r="B112" s="2">
@@ -2646,8 +2651,8 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+    <row r="113" spans="1:6">
+      <c r="A113" s="4">
         <v>2022</v>
       </c>
       <c r="B113" s="2">
@@ -2666,8 +2671,8 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+    <row r="114" spans="1:6">
+      <c r="A114" s="4">
         <v>2022</v>
       </c>
       <c r="B114" s="2">
@@ -2686,8 +2691,8 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+    <row r="115" spans="1:6">
+      <c r="A115" s="4">
         <v>2022</v>
       </c>
       <c r="B115" s="2">
@@ -2706,8 +2711,8 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+    <row r="116" spans="1:6">
+      <c r="A116" s="4">
         <v>2022</v>
       </c>
       <c r="B116" s="2">
@@ -2726,8 +2731,8 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+    <row r="117" spans="1:6">
+      <c r="A117" s="4">
         <v>2022</v>
       </c>
       <c r="B117" s="2">
@@ -2746,8 +2751,8 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+    <row r="118" spans="1:6">
+      <c r="A118" s="4">
         <v>2022</v>
       </c>
       <c r="B118" s="2">
@@ -2766,8 +2771,8 @@
         <v>4659</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+    <row r="119" spans="1:6">
+      <c r="A119" s="4">
         <v>2022</v>
       </c>
       <c r="B119" s="2">
@@ -2786,8 +2791,8 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+    <row r="120" spans="1:6">
+      <c r="A120" s="4">
         <v>2022</v>
       </c>
       <c r="B120" s="2">
@@ -2806,8 +2811,8 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+    <row r="121" spans="1:6">
+      <c r="A121" s="4">
         <v>2022</v>
       </c>
       <c r="B121" s="2">
@@ -2826,8 +2831,8 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+    <row r="122" spans="1:6">
+      <c r="A122" s="4">
         <v>2022</v>
       </c>
       <c r="B122" s="2">
@@ -2846,8 +2851,8 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+    <row r="123" spans="1:6">
+      <c r="A123" s="4">
         <v>2022</v>
       </c>
       <c r="B123" s="2">
@@ -2866,8 +2871,8 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+    <row r="124" spans="1:6">
+      <c r="A124" s="4">
         <v>2022</v>
       </c>
       <c r="B124" s="2">
@@ -2886,8 +2891,8 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+    <row r="125" spans="1:6">
+      <c r="A125" s="4">
         <v>2022</v>
       </c>
       <c r="B125" s="2">
@@ -2906,8 +2911,8 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+    <row r="126" spans="1:6">
+      <c r="A126" s="4">
         <v>2022</v>
       </c>
       <c r="B126" s="2">
@@ -2926,8 +2931,8 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+    <row r="127" spans="1:6">
+      <c r="A127" s="4">
         <v>2022</v>
       </c>
       <c r="B127" s="2">
@@ -2946,8 +2951,8 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+    <row r="128" spans="1:6">
+      <c r="A128" s="4">
         <v>2022</v>
       </c>
       <c r="B128" s="2">
@@ -2966,8 +2971,8 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+    <row r="129" spans="1:6">
+      <c r="A129" s="4">
         <v>2022</v>
       </c>
       <c r="B129" s="2">
@@ -2986,8 +2991,8 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+    <row r="130" spans="1:6">
+      <c r="A130" s="4">
         <v>2022</v>
       </c>
       <c r="B130" s="2">
@@ -3006,8 +3011,8 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+    <row r="131" spans="1:6">
+      <c r="A131" s="4">
         <v>2022</v>
       </c>
       <c r="B131" s="2">
@@ -3026,8 +3031,8 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+    <row r="132" spans="1:6">
+      <c r="A132" s="4">
         <v>2022</v>
       </c>
       <c r="B132" s="2">
@@ -3046,8 +3051,8 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+    <row r="133" spans="1:6">
+      <c r="A133" s="4">
         <v>2022</v>
       </c>
       <c r="B133" s="2">
@@ -3066,8 +3071,8 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+    <row r="134" spans="1:6">
+      <c r="A134" s="4">
         <v>2022</v>
       </c>
       <c r="B134" s="2">
@@ -3086,8 +3091,8 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+    <row r="135" spans="1:6">
+      <c r="A135" s="4">
         <v>2022</v>
       </c>
       <c r="B135" s="2">
@@ -3106,8 +3111,8 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+    <row r="136" spans="1:6">
+      <c r="A136" s="4">
         <v>2022</v>
       </c>
       <c r="B136" s="2">
@@ -3126,8 +3131,8 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+    <row r="137" spans="1:6">
+      <c r="A137" s="4">
         <v>2022</v>
       </c>
       <c r="B137" s="2">
@@ -3146,8 +3151,8 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+    <row r="138" spans="1:6">
+      <c r="A138" s="4">
         <v>2022</v>
       </c>
       <c r="B138" s="2">
@@ -3166,8 +3171,8 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+    <row r="139" spans="1:6">
+      <c r="A139" s="4">
         <v>2022</v>
       </c>
       <c r="B139" s="2">
@@ -3186,8 +3191,8 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+    <row r="140" spans="1:6">
+      <c r="A140" s="4">
         <v>2022</v>
       </c>
       <c r="B140" s="2">
@@ -3206,8 +3211,8 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+    <row r="141" spans="1:6">
+      <c r="A141" s="4">
         <v>2022</v>
       </c>
       <c r="B141" s="2">
@@ -3226,8 +3231,8 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+    <row r="142" spans="1:6">
+      <c r="A142" s="4">
         <v>2022</v>
       </c>
       <c r="B142" s="2">
@@ -3246,8 +3251,8 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+    <row r="143" spans="1:6">
+      <c r="A143" s="4">
         <v>2022</v>
       </c>
       <c r="B143" s="2">
@@ -3266,8 +3271,8 @@
         <v>4782</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+    <row r="144" spans="1:6">
+      <c r="A144" s="4">
         <v>2022</v>
       </c>
       <c r="B144" s="2">
@@ -3286,8 +3291,8 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+    <row r="145" spans="1:6">
+      <c r="A145" s="4">
         <v>2022</v>
       </c>
       <c r="B145" s="2">
@@ -3306,8 +3311,8 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+    <row r="146" spans="1:6">
+      <c r="A146" s="4">
         <v>2022</v>
       </c>
       <c r="B146" s="2">
@@ -3326,8 +3331,8 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
+    <row r="147" spans="1:6">
+      <c r="A147" s="4">
         <v>2023</v>
       </c>
       <c r="B147" s="2">
@@ -3346,8 +3351,8 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+    <row r="148" spans="1:6">
+      <c r="A148" s="4">
         <v>2023</v>
       </c>
       <c r="B148" s="2">
@@ -3366,8 +3371,8 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
+    <row r="149" spans="1:6">
+      <c r="A149" s="4">
         <v>2023</v>
       </c>
       <c r="B149" s="2">
@@ -3386,8 +3391,8 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+    <row r="150" spans="1:6">
+      <c r="A150" s="4">
         <v>2023</v>
       </c>
       <c r="B150" s="2">
@@ -3406,8 +3411,8 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+    <row r="151" spans="1:6">
+      <c r="A151" s="4">
         <v>2023</v>
       </c>
       <c r="B151" s="2">
@@ -3426,8 +3431,8 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+    <row r="152" spans="1:6">
+      <c r="A152" s="4">
         <v>2023</v>
       </c>
       <c r="B152" s="2">
@@ -3446,8 +3451,8 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+    <row r="153" spans="1:6">
+      <c r="A153" s="4">
         <v>2023</v>
       </c>
       <c r="B153" s="2">
@@ -3466,8 +3471,8 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+    <row r="154" spans="1:6">
+      <c r="A154" s="4">
         <v>2023</v>
       </c>
       <c r="B154" s="2">
@@ -3486,8 +3491,8 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+    <row r="155" spans="1:6">
+      <c r="A155" s="4">
         <v>2023</v>
       </c>
       <c r="B155" s="2">
@@ -3506,8 +3511,8 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+    <row r="156" spans="1:6">
+      <c r="A156" s="4">
         <v>2023</v>
       </c>
       <c r="B156" s="2">
@@ -3526,8 +3531,8 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+    <row r="157" spans="1:6">
+      <c r="A157" s="4">
         <v>2023</v>
       </c>
       <c r="B157" s="2">
@@ -3546,8 +3551,8 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
+    <row r="158" spans="1:6">
+      <c r="A158" s="4">
         <v>2023</v>
       </c>
       <c r="B158" s="2">
@@ -3566,8 +3571,8 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
+    <row r="159" spans="1:6">
+      <c r="A159" s="4">
         <v>2023</v>
       </c>
       <c r="B159" s="2">
@@ -3586,8 +3591,8 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
+    <row r="160" spans="1:6">
+      <c r="A160" s="4">
         <v>2023</v>
       </c>
       <c r="B160" s="2">
@@ -3606,8 +3611,8 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
+    <row r="161" spans="1:6">
+      <c r="A161" s="4">
         <v>2023</v>
       </c>
       <c r="B161" s="2">
@@ -3626,8 +3631,8 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
+    <row r="162" spans="1:6">
+      <c r="A162" s="4">
         <v>2023</v>
       </c>
       <c r="B162" s="2">
@@ -3646,8 +3651,8 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
+    <row r="163" spans="1:6">
+      <c r="A163" s="4">
         <v>2023</v>
       </c>
       <c r="B163" s="2">
@@ -3666,8 +3671,8 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
+    <row r="164" spans="1:6">
+      <c r="A164" s="4">
         <v>2023</v>
       </c>
       <c r="B164" s="2">
@@ -3686,8 +3691,8 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
+    <row r="165" spans="1:6">
+      <c r="A165" s="4">
         <v>2023</v>
       </c>
       <c r="B165" s="2">
@@ -3706,8 +3711,8 @@
         <v>4667</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
+    <row r="166" spans="1:6">
+      <c r="A166" s="4">
         <v>2023</v>
       </c>
       <c r="B166" s="2">
@@ -3726,8 +3731,8 @@
         <v>4729</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="3">
+    <row r="167" spans="1:6">
+      <c r="A167" s="4">
         <v>2023</v>
       </c>
       <c r="B167" s="2">
@@ -3746,8 +3751,8 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="3">
+    <row r="168" spans="1:6">
+      <c r="A168" s="4">
         <v>2023</v>
       </c>
       <c r="B168" s="2">
@@ -3766,8 +3771,8 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="3">
+    <row r="169" spans="1:6">
+      <c r="A169" s="4">
         <v>2023</v>
       </c>
       <c r="B169" s="2">
@@ -3786,8 +3791,8 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="3">
+    <row r="170" spans="1:6">
+      <c r="A170" s="4">
         <v>2023</v>
       </c>
       <c r="B170" s="2">
@@ -3806,8 +3811,8 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="3">
+    <row r="171" spans="1:6">
+      <c r="A171" s="4">
         <v>2023</v>
       </c>
       <c r="B171" s="2">
@@ -3826,8 +3831,8 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="3">
+    <row r="172" spans="1:6">
+      <c r="A172" s="4">
         <v>2023</v>
       </c>
       <c r="B172" s="2">
@@ -3846,8 +3851,8 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="3">
+    <row r="173" spans="1:6">
+      <c r="A173" s="4">
         <v>2023</v>
       </c>
       <c r="B173" s="2">
@@ -3866,8 +3871,8 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="3">
+    <row r="174" spans="1:6">
+      <c r="A174" s="4">
         <v>2023</v>
       </c>
       <c r="B174" s="2">
@@ -3886,8 +3891,8 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="3">
+    <row r="175" spans="1:6">
+      <c r="A175" s="4">
         <v>2023</v>
       </c>
       <c r="B175" s="2">
@@ -3906,8 +3911,8 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="3">
+    <row r="176" spans="1:6">
+      <c r="A176" s="4">
         <v>2023</v>
       </c>
       <c r="B176" s="2">
@@ -3926,8 +3931,8 @@
         <v>4193</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
+    <row r="177" spans="1:6">
+      <c r="A177" s="4">
         <v>2023</v>
       </c>
       <c r="B177" s="2">
@@ -3946,8 +3951,8 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="3">
+    <row r="178" spans="1:6">
+      <c r="A178" s="4">
         <v>2023</v>
       </c>
       <c r="B178" s="2">
@@ -3966,8 +3971,8 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="3">
+    <row r="179" spans="1:6">
+      <c r="A179" s="4">
         <v>2023</v>
       </c>
       <c r="B179" s="2">
@@ -3986,8 +3991,8 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="3">
+    <row r="180" spans="1:6">
+      <c r="A180" s="4">
         <v>2023</v>
       </c>
       <c r="B180" s="2">
@@ -4006,8 +4011,8 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="3">
+    <row r="181" spans="1:6">
+      <c r="A181" s="4">
         <v>2023</v>
       </c>
       <c r="B181" s="2">
@@ -4026,8 +4031,8 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="3">
+    <row r="182" spans="1:6">
+      <c r="A182" s="4">
         <v>2023</v>
       </c>
       <c r="B182" s="2">
@@ -4046,8 +4051,8 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="3">
+    <row r="183" spans="1:6">
+      <c r="A183" s="4">
         <v>2023</v>
       </c>
       <c r="B183" s="2">
@@ -4066,8 +4071,8 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="3">
+    <row r="184" spans="1:6">
+      <c r="A184" s="4">
         <v>2023</v>
       </c>
       <c r="B184" s="2">
@@ -4086,8 +4091,8 @@
         <v>4177</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="3">
+    <row r="185" spans="1:6">
+      <c r="A185" s="4">
         <v>2023</v>
       </c>
       <c r="B185" s="2">
@@ -4106,8 +4111,8 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="3">
+    <row r="186" spans="1:6">
+      <c r="A186" s="4">
         <v>2023</v>
       </c>
       <c r="B186" s="2">
@@ -4126,8 +4131,8 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="3">
+    <row r="187" spans="1:6">
+      <c r="A187" s="4">
         <v>2023</v>
       </c>
       <c r="B187" s="2">
@@ -4146,8 +4151,8 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="3">
+    <row r="188" spans="1:6">
+      <c r="A188" s="4">
         <v>2023</v>
       </c>
       <c r="B188" s="2">
@@ -4166,8 +4171,8 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="3">
+    <row r="189" spans="1:6">
+      <c r="A189" s="4">
         <v>2023</v>
       </c>
       <c r="B189" s="2">
@@ -4186,8 +4191,8 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="3">
+    <row r="190" spans="1:6">
+      <c r="A190" s="4">
         <v>2023</v>
       </c>
       <c r="B190" s="2">
@@ -4206,8 +4211,8 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="3">
+    <row r="191" spans="1:6">
+      <c r="A191" s="4">
         <v>2023</v>
       </c>
       <c r="B191" s="2">
@@ -4226,8 +4231,8 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="3">
+    <row r="192" spans="1:6">
+      <c r="A192" s="4">
         <v>2023</v>
       </c>
       <c r="B192" s="2">
@@ -4246,8 +4251,8 @@
         <v>4794</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="3">
+    <row r="193" spans="1:6">
+      <c r="A193" s="4">
         <v>2023</v>
       </c>
       <c r="B193" s="2">
@@ -4266,8 +4271,8 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="3">
+    <row r="194" spans="1:6">
+      <c r="A194" s="4">
         <v>2023</v>
       </c>
       <c r="B194" s="2">
@@ -4286,8 +4291,8 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="3">
+    <row r="195" spans="1:6">
+      <c r="A195" s="4">
         <v>2024</v>
       </c>
       <c r="B195" s="2">
@@ -4306,8 +4311,8 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="3">
+    <row r="196" spans="1:6">
+      <c r="A196" s="4">
         <v>2024</v>
       </c>
       <c r="B196" s="2">
@@ -4326,8 +4331,8 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="3">
+    <row r="197" spans="1:6">
+      <c r="A197" s="4">
         <v>2024</v>
       </c>
       <c r="B197" s="2">
@@ -4346,8 +4351,8 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="3">
+    <row r="198" spans="1:6">
+      <c r="A198" s="4">
         <v>2024</v>
       </c>
       <c r="B198" s="2">
@@ -4366,8 +4371,8 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
+    <row r="199" spans="1:6">
+      <c r="A199" s="4">
         <v>2024</v>
       </c>
       <c r="B199" s="2">
@@ -4386,8 +4391,8 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="3">
+    <row r="200" spans="1:6">
+      <c r="A200" s="4">
         <v>2024</v>
       </c>
       <c r="B200" s="2">
@@ -4406,8 +4411,8 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="3">
+    <row r="201" spans="1:6">
+      <c r="A201" s="4">
         <v>2024</v>
       </c>
       <c r="B201" s="2">
@@ -4426,8 +4431,8 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="3">
+    <row r="202" spans="1:6">
+      <c r="A202" s="4">
         <v>2024</v>
       </c>
       <c r="B202" s="2">
@@ -4446,8 +4451,8 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="3">
+    <row r="203" spans="1:6">
+      <c r="A203" s="4">
         <v>2024</v>
       </c>
       <c r="B203" s="2">
@@ -4466,8 +4471,8 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="3">
+    <row r="204" spans="1:6">
+      <c r="A204" s="4">
         <v>2024</v>
       </c>
       <c r="B204" s="2">
@@ -4486,8 +4491,8 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="3">
+    <row r="205" spans="1:6">
+      <c r="A205" s="4">
         <v>2024</v>
       </c>
       <c r="B205" s="2">
@@ -4506,8 +4511,8 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="3">
+    <row r="206" spans="1:6">
+      <c r="A206" s="4">
         <v>2024</v>
       </c>
       <c r="B206" s="2">
@@ -4526,8 +4531,8 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="3">
+    <row r="207" spans="1:6">
+      <c r="A207" s="4">
         <v>2024</v>
       </c>
       <c r="B207" s="2">
@@ -4546,8 +4551,8 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="3">
+    <row r="208" spans="1:6">
+      <c r="A208" s="4">
         <v>2024</v>
       </c>
       <c r="B208" s="2">
@@ -4566,8 +4571,8 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="3">
+    <row r="209" spans="1:6">
+      <c r="A209" s="4">
         <v>2024</v>
       </c>
       <c r="B209" s="2">
@@ -4586,8 +4591,8 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="3">
+    <row r="210" spans="1:6">
+      <c r="A210" s="4">
         <v>2024</v>
       </c>
       <c r="B210" s="2">
@@ -4606,8 +4611,8 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="3">
+    <row r="211" spans="1:6">
+      <c r="A211" s="4">
         <v>2024</v>
       </c>
       <c r="B211" s="2">
@@ -4626,8 +4631,8 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="3">
+    <row r="212" spans="1:6">
+      <c r="A212" s="4">
         <v>2024</v>
       </c>
       <c r="B212" s="2">
@@ -4646,8 +4651,8 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="3">
+    <row r="213" spans="1:6">
+      <c r="A213" s="4">
         <v>2024</v>
       </c>
       <c r="B213" s="2">
@@ -4666,8 +4671,8 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="3">
+    <row r="214" spans="1:6">
+      <c r="A214" s="4">
         <v>2024</v>
       </c>
       <c r="B214" s="2">
@@ -4686,8 +4691,8 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="3">
+    <row r="215" spans="1:6">
+      <c r="A215" s="4">
         <v>2024</v>
       </c>
       <c r="B215" s="2">
@@ -4706,8 +4711,8 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="3">
+    <row r="216" spans="1:6">
+      <c r="A216" s="4">
         <v>2024</v>
       </c>
       <c r="B216" s="2">
@@ -4726,8 +4731,8 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="3">
+    <row r="217" spans="1:6">
+      <c r="A217" s="4">
         <v>2024</v>
       </c>
       <c r="B217" s="2">
@@ -4746,8 +4751,8 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="3">
+    <row r="218" spans="1:6">
+      <c r="A218" s="4">
         <v>2024</v>
       </c>
       <c r="B218" s="2">
@@ -4766,8 +4771,8 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="3">
+    <row r="219" spans="1:6">
+      <c r="A219" s="4">
         <v>2024</v>
       </c>
       <c r="B219" s="2">
@@ -4786,8 +4791,8 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="3">
+    <row r="220" spans="1:6">
+      <c r="A220" s="4">
         <v>2024</v>
       </c>
       <c r="B220" s="2">
@@ -4806,8 +4811,8 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="3">
+    <row r="221" spans="1:6">
+      <c r="A221" s="4">
         <v>2024</v>
       </c>
       <c r="B221" s="2">
@@ -4826,8 +4831,8 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="3">
+    <row r="222" spans="1:6">
+      <c r="A222" s="4">
         <v>2024</v>
       </c>
       <c r="B222" s="2">
@@ -4846,8 +4851,8 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="3">
+    <row r="223" spans="1:6">
+      <c r="A223" s="4">
         <v>2024</v>
       </c>
       <c r="B223" s="2">
@@ -4866,8 +4871,8 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="3">
+    <row r="224" spans="1:6">
+      <c r="A224" s="4">
         <v>2024</v>
       </c>
       <c r="B224" s="2">
@@ -4886,8 +4891,8 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="3">
+    <row r="225" spans="1:6">
+      <c r="A225" s="4">
         <v>2024</v>
       </c>
       <c r="B225" s="2">
@@ -4906,8 +4911,8 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="3">
+    <row r="226" spans="1:6">
+      <c r="A226" s="4">
         <v>2024</v>
       </c>
       <c r="B226" s="2">
@@ -4926,8 +4931,8 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="3">
+    <row r="227" spans="1:6">
+      <c r="A227" s="4">
         <v>2024</v>
       </c>
       <c r="B227" s="2">
@@ -4946,8 +4951,8 @@
         <v>4657</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="3">
+    <row r="228" spans="1:6">
+      <c r="A228" s="4">
         <v>2024</v>
       </c>
       <c r="B228" s="2">
@@ -4966,8 +4971,8 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="3">
+    <row r="229" spans="1:6">
+      <c r="A229" s="4">
         <v>2024</v>
       </c>
       <c r="B229" s="2">
@@ -4986,8 +4991,8 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="3">
+    <row r="230" spans="1:6">
+      <c r="A230" s="4">
         <v>2024</v>
       </c>
       <c r="B230" s="2">
@@ -5006,8 +5011,8 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="3">
+    <row r="231" spans="1:6">
+      <c r="A231" s="4">
         <v>2024</v>
       </c>
       <c r="B231" s="2">
@@ -5026,8 +5031,8 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="3">
+    <row r="232" spans="1:6">
+      <c r="A232" s="4">
         <v>2024</v>
       </c>
       <c r="B232" s="2">
@@ -5046,8 +5051,8 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="3">
+    <row r="233" spans="1:6">
+      <c r="A233" s="4">
         <v>2024</v>
       </c>
       <c r="B233" s="2">
@@ -5066,8 +5071,8 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="3">
+    <row r="234" spans="1:6">
+      <c r="A234" s="4">
         <v>2024</v>
       </c>
       <c r="B234" s="2">
@@ -5086,8 +5091,8 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="3">
+    <row r="235" spans="1:6">
+      <c r="A235" s="4">
         <v>2024</v>
       </c>
       <c r="B235" s="2">
@@ -5106,8 +5111,8 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="3">
+    <row r="236" spans="1:6">
+      <c r="A236" s="4">
         <v>2024</v>
       </c>
       <c r="B236" s="2">
@@ -5126,8 +5131,8 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="3">
+    <row r="237" spans="1:6">
+      <c r="A237" s="4">
         <v>2024</v>
       </c>
       <c r="B237" s="2">
@@ -5146,8 +5151,8 @@
         <v>4874</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="3">
+    <row r="238" spans="1:6">
+      <c r="A238" s="4">
         <v>2024</v>
       </c>
       <c r="B238" s="2">
@@ -5166,8 +5171,8 @@
         <v>4951</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="3">
+    <row r="239" spans="1:6">
+      <c r="A239" s="4">
         <v>2024</v>
       </c>
       <c r="B239" s="2">
@@ -5186,8 +5191,8 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="3">
+    <row r="240" spans="1:6">
+      <c r="A240" s="4">
         <v>2024</v>
       </c>
       <c r="B240" s="2">
@@ -5206,8 +5211,8 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="3">
+    <row r="241" spans="1:6">
+      <c r="A241" s="4">
         <v>2024</v>
       </c>
       <c r="B241" s="2">
@@ -5226,8 +5231,8 @@
         <v>4763</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="3">
+    <row r="242" spans="1:6">
+      <c r="A242" s="4">
         <v>2024</v>
       </c>
       <c r="B242" s="2">
@@ -5246,8 +5251,8 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="3">
+    <row r="243" spans="1:6">
+      <c r="A243" s="4">
         <v>2025</v>
       </c>
       <c r="B243" s="2">
@@ -5266,8 +5271,8 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="3">
+    <row r="244" spans="1:6">
+      <c r="A244" s="4">
         <v>2025</v>
       </c>
       <c r="B244" s="2">
@@ -5286,8 +5291,8 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="3">
+    <row r="245" spans="1:6">
+      <c r="A245" s="4">
         <v>2025</v>
       </c>
       <c r="B245" s="2">
@@ -5306,8 +5311,8 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="3">
+    <row r="246" spans="1:6">
+      <c r="A246" s="4">
         <v>2025</v>
       </c>
       <c r="B246" s="2">
@@ -5326,8 +5331,8 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="3">
+    <row r="247" spans="1:6">
+      <c r="A247" s="4">
         <v>2025</v>
       </c>
       <c r="B247" s="2">
@@ -5346,8 +5351,8 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="3">
+    <row r="248" spans="1:6">
+      <c r="A248" s="4">
         <v>2025</v>
       </c>
       <c r="B248" s="2">
@@ -5366,8 +5371,8 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="3">
+    <row r="249" spans="1:6">
+      <c r="A249" s="4">
         <v>2025</v>
       </c>
       <c r="B249" s="2">
@@ -5386,8 +5391,8 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="3">
+    <row r="250" spans="1:6">
+      <c r="A250" s="4">
         <v>2025</v>
       </c>
       <c r="B250" s="2">
@@ -5406,8 +5411,8 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="3">
+    <row r="251" spans="1:6">
+      <c r="A251" s="4">
         <v>2025</v>
       </c>
       <c r="B251" s="2">
@@ -5426,8 +5431,8 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="3">
+    <row r="252" spans="1:6">
+      <c r="A252" s="4">
         <v>2025</v>
       </c>
       <c r="B252" s="2">
@@ -5446,8 +5451,8 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="3">
+    <row r="253" spans="1:6">
+      <c r="A253" s="4">
         <v>2025</v>
       </c>
       <c r="B253" s="2">
@@ -5466,8 +5471,8 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="3">
+    <row r="254" spans="1:6">
+      <c r="A254" s="4">
         <v>2025</v>
       </c>
       <c r="B254" s="2">
@@ -5486,8 +5491,8 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="3">
+    <row r="255" spans="1:6">
+      <c r="A255" s="4">
         <v>2025</v>
       </c>
       <c r="B255" s="2">
@@ -5506,8 +5511,8 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="3">
+    <row r="256" spans="1:6">
+      <c r="A256" s="4">
         <v>2025</v>
       </c>
       <c r="B256" s="2">
@@ -5526,8 +5531,8 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="3">
+    <row r="257" spans="1:6">
+      <c r="A257" s="4">
         <v>2025</v>
       </c>
       <c r="B257" s="2">
@@ -5546,8 +5551,8 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="3">
+    <row r="258" spans="1:6">
+      <c r="A258" s="4">
         <v>2025</v>
       </c>
       <c r="B258" s="2">
@@ -5566,8 +5571,8 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="3">
+    <row r="259" spans="1:6">
+      <c r="A259" s="4">
         <v>2025</v>
       </c>
       <c r="B259" s="2">
@@ -5586,8 +5591,8 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="3">
+    <row r="260" spans="1:6">
+      <c r="A260" s="4">
         <v>2025</v>
       </c>
       <c r="B260" s="2">
@@ -5606,8 +5611,8 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="3">
+    <row r="261" spans="1:6">
+      <c r="A261" s="4">
         <v>2025</v>
       </c>
       <c r="B261" s="2">
@@ -5626,8 +5631,8 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="3">
+    <row r="262" spans="1:6">
+      <c r="A262" s="4">
         <v>2025</v>
       </c>
       <c r="B262" s="2">
@@ -5646,8 +5651,8 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="3">
+    <row r="263" spans="1:6">
+      <c r="A263" s="4">
         <v>2025</v>
       </c>
       <c r="B263" s="2">
@@ -5666,8 +5671,8 @@
         <v>4852</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="3">
+    <row r="264" spans="1:6">
+      <c r="A264" s="4">
         <v>2025</v>
       </c>
       <c r="B264" s="2">
@@ -5686,8 +5691,8 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="3">
+    <row r="265" spans="1:6">
+      <c r="A265" s="4">
         <v>2025</v>
       </c>
       <c r="B265" s="2">
@@ -5706,8 +5711,8 @@
         <v>4735</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="3">
+    <row r="266" spans="1:6">
+      <c r="A266" s="4">
         <v>2025</v>
       </c>
       <c r="B266" s="2">
@@ -5726,8 +5731,8 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="3">
+    <row r="267" spans="1:6">
+      <c r="A267" s="4">
         <v>2025</v>
       </c>
       <c r="B267" s="2">
@@ -5746,8 +5751,8 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="3">
+    <row r="268" spans="1:6">
+      <c r="A268" s="4">
         <v>2025</v>
       </c>
       <c r="B268" s="2">
@@ -5766,8 +5771,8 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="3">
+    <row r="269" spans="1:6">
+      <c r="A269" s="4">
         <v>2025</v>
       </c>
       <c r="B269" s="2">
@@ -5786,8 +5791,8 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="3">
+    <row r="270" spans="1:6">
+      <c r="A270" s="4">
         <v>2025</v>
       </c>
       <c r="B270" s="2">
@@ -5806,8 +5811,8 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="3">
+    <row r="271" spans="1:6">
+      <c r="A271" s="4">
         <v>2025</v>
       </c>
       <c r="B271" s="2">
@@ -5826,8 +5831,8 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="3">
+    <row r="272" spans="1:6">
+      <c r="A272" s="4">
         <v>2025</v>
       </c>
       <c r="B272" s="2">
@@ -5846,8 +5851,8 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="3">
+    <row r="273" spans="1:6">
+      <c r="A273" s="4">
         <v>2025</v>
       </c>
       <c r="B273" s="2">
@@ -5866,8 +5871,8 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="3">
+    <row r="274" spans="1:6">
+      <c r="A274" s="4">
         <v>2025</v>
       </c>
       <c r="B274" s="2">
@@ -5886,8 +5891,8 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="3">
+    <row r="275" spans="1:6">
+      <c r="A275" s="4">
         <v>2025</v>
       </c>
       <c r="B275" s="2">
@@ -5906,8 +5911,8 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="3">
+    <row r="276" spans="1:6">
+      <c r="A276" s="4">
         <v>2025</v>
       </c>
       <c r="B276" s="2">
@@ -5926,8 +5931,8 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="3">
+    <row r="277" spans="1:6">
+      <c r="A277" s="4">
         <v>2025</v>
       </c>
       <c r="B277" s="2">
@@ -5946,8 +5951,8 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="3">
+    <row r="278" spans="1:6">
+      <c r="A278" s="4">
         <v>2025</v>
       </c>
       <c r="B278" s="2">
@@ -5966,8 +5971,8 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="3">
+    <row r="279" spans="1:6">
+      <c r="A279" s="4">
         <v>2025</v>
       </c>
       <c r="B279" s="2">
@@ -5986,8 +5991,8 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="3">
+    <row r="280" spans="1:6">
+      <c r="A280" s="4">
         <v>2025</v>
       </c>
       <c r="B280" s="2">
@@ -6006,8 +6011,8 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="3">
+    <row r="281" spans="1:6">
+      <c r="A281" s="4">
         <v>2025</v>
       </c>
       <c r="B281" s="2">
@@ -6026,8 +6031,8 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="3">
+    <row r="282" spans="1:6">
+      <c r="A282" s="4">
         <v>2025</v>
       </c>
       <c r="B282" s="2">
@@ -6046,8 +6051,8 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="3">
+    <row r="283" spans="1:6">
+      <c r="A283" s="4">
         <v>2025</v>
       </c>
       <c r="B283" s="2">
@@ -6066,8 +6071,8 @@
         <v>4291</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="3">
+    <row r="284" spans="1:6">
+      <c r="A284" s="4">
         <v>2025</v>
       </c>
       <c r="B284" s="2">
@@ -6086,8 +6091,8 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="3">
+    <row r="285" spans="1:6">
+      <c r="A285" s="4">
         <v>2025</v>
       </c>
       <c r="B285" s="2">
@@ -6106,8 +6111,8 @@
         <v>4947</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="3">
+    <row r="286" spans="1:6">
+      <c r="A286" s="4">
         <v>2025</v>
       </c>
       <c r="B286" s="2">
@@ -6126,8 +6131,8 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="3">
+    <row r="287" spans="1:6">
+      <c r="A287" s="4">
         <v>2025</v>
       </c>
       <c r="B287" s="2">
@@ -6146,8 +6151,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="3">
+    <row r="288" spans="1:6">
+      <c r="A288" s="4">
         <v>2025</v>
       </c>
       <c r="B288" s="2">
@@ -6166,8 +6171,8 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="3">
+    <row r="289" spans="1:6">
+      <c r="A289" s="4">
         <v>2025</v>
       </c>
       <c r="B289" s="2">
@@ -6186,8 +6191,8 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="3">
+    <row r="290" spans="1:6">
+      <c r="A290" s="4">
         <v>2025</v>
       </c>
       <c r="B290" s="2">
@@ -6206,8 +6211,8 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="3">
+    <row r="291" spans="1:6">
+      <c r="A291" s="4">
         <v>2026</v>
       </c>
       <c r="B291" s="2">
@@ -6226,8 +6231,8 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="3">
+    <row r="292" spans="1:6">
+      <c r="A292" s="4">
         <v>2026</v>
       </c>
       <c r="B292" s="2">
@@ -6246,8 +6251,8 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="3">
+    <row r="293" spans="1:6">
+      <c r="A293" s="4">
         <v>2026</v>
       </c>
       <c r="B293" s="2">
@@ -6266,8 +6271,8 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="3">
+    <row r="294" spans="1:6">
+      <c r="A294" s="4">
         <v>2026</v>
       </c>
       <c r="B294" s="2">
@@ -6286,8 +6291,8 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="3">
+    <row r="295" spans="1:6">
+      <c r="A295" s="4">
         <v>2026</v>
       </c>
       <c r="B295" s="2">
@@ -6306,8 +6311,8 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="3">
+    <row r="296" spans="1:6">
+      <c r="A296" s="4">
         <v>2026</v>
       </c>
       <c r="B296" s="2">
@@ -6326,8 +6331,8 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="3">
+    <row r="297" spans="1:6">
+      <c r="A297" s="4">
         <v>2026</v>
       </c>
       <c r="B297" s="2">
@@ -6346,8 +6351,8 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="3">
+    <row r="298" spans="1:6">
+      <c r="A298" s="4">
         <v>2026</v>
       </c>
       <c r="B298" s="2">
@@ -6366,8 +6371,8 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="3">
+    <row r="299" spans="1:6">
+      <c r="A299" s="4">
         <v>2026</v>
       </c>
       <c r="B299" s="2">
@@ -6386,8 +6391,8 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="3">
+    <row r="300" spans="1:6">
+      <c r="A300" s="4">
         <v>2026</v>
       </c>
       <c r="B300" s="2">
@@ -6406,8 +6411,8 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="3">
+    <row r="301" spans="1:6">
+      <c r="A301" s="4">
         <v>2026</v>
       </c>
       <c r="B301" s="2">
@@ -6426,8 +6431,8 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="3">
+    <row r="302" spans="1:6">
+      <c r="A302" s="4">
         <v>2026</v>
       </c>
       <c r="B302" s="2">
@@ -6446,8 +6451,8 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="3">
+    <row r="303" spans="1:6">
+      <c r="A303" s="4">
         <v>2026</v>
       </c>
       <c r="B303" s="2">
@@ -6466,8 +6471,8 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="3">
+    <row r="304" spans="1:6">
+      <c r="A304" s="4">
         <v>2026</v>
       </c>
       <c r="B304" s="2">
@@ -6486,8 +6491,8 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="3">
+    <row r="305" spans="1:6">
+      <c r="A305" s="4">
         <v>2026</v>
       </c>
       <c r="B305" s="2">
@@ -6506,8 +6511,8 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="3">
+    <row r="306" spans="1:6">
+      <c r="A306" s="4">
         <v>2026</v>
       </c>
       <c r="B306" s="2">
@@ -6526,8 +6531,8 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="3">
+    <row r="307" spans="1:6">
+      <c r="A307" s="4">
         <v>2026</v>
       </c>
       <c r="B307" s="2">
@@ -6546,8 +6551,8 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="3">
+    <row r="308" spans="1:6">
+      <c r="A308" s="4">
         <v>2026</v>
       </c>
       <c r="B308" s="2">
@@ -6566,8 +6571,8 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="3">
+    <row r="309" spans="1:6">
+      <c r="A309" s="4">
         <v>2026</v>
       </c>
       <c r="B309" s="2">
@@ -6586,8 +6591,8 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="3">
+    <row r="310" spans="1:6">
+      <c r="A310" s="4">
         <v>2026</v>
       </c>
       <c r="B310" s="2">
@@ -6606,8 +6611,8 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="3">
+    <row r="311" spans="1:6">
+      <c r="A311" s="4">
         <v>2026</v>
       </c>
       <c r="B311" s="2">
@@ -6626,8 +6631,8 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="3">
+    <row r="312" spans="1:6">
+      <c r="A312" s="4">
         <v>2026</v>
       </c>
       <c r="B312" s="2">
@@ -6646,8 +6651,8 @@
         <v>4883</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="3">
+    <row r="313" spans="1:6">
+      <c r="A313" s="4">
         <v>2026</v>
       </c>
       <c r="B313" s="2">
@@ -6666,8 +6671,8 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="3">
+    <row r="314" spans="1:6">
+      <c r="A314" s="4">
         <v>2026</v>
       </c>
       <c r="B314" s="2">
@@ -6686,8 +6691,8 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="3">
+    <row r="315" spans="1:6">
+      <c r="A315" s="4">
         <v>2026</v>
       </c>
       <c r="B315" s="2">
@@ -6706,8 +6711,8 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="3">
+    <row r="316" spans="1:6">
+      <c r="A316" s="4">
         <v>2026</v>
       </c>
       <c r="B316" s="2">
@@ -6726,8 +6731,8 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="3">
+    <row r="317" spans="1:6">
+      <c r="A317" s="4">
         <v>2026</v>
       </c>
       <c r="B317" s="2">
@@ -6746,8 +6751,8 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="3">
+    <row r="318" spans="1:6">
+      <c r="A318" s="4">
         <v>2026</v>
       </c>
       <c r="B318" s="2">
@@ -6766,8 +6771,8 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="3">
+    <row r="319" spans="1:6">
+      <c r="A319" s="4">
         <v>2026</v>
       </c>
       <c r="B319" s="2">
@@ -6786,8 +6791,8 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="3">
+    <row r="320" spans="1:6">
+      <c r="A320" s="4">
         <v>2026</v>
       </c>
       <c r="B320" s="2">
@@ -6806,8 +6811,8 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="3">
+    <row r="321" spans="1:6">
+      <c r="A321" s="4">
         <v>2026</v>
       </c>
       <c r="B321" s="2">
@@ -6826,8 +6831,8 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="3">
+    <row r="322" spans="1:6">
+      <c r="A322" s="4">
         <v>2026</v>
       </c>
       <c r="B322" s="2">
@@ -6846,8 +6851,8 @@
         <v>4782</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="3">
+    <row r="323" spans="1:6">
+      <c r="A323" s="4">
         <v>2026</v>
       </c>
       <c r="B323" s="2">
@@ -6866,8 +6871,8 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="3">
+    <row r="324" spans="1:6">
+      <c r="A324" s="4">
         <v>2026</v>
       </c>
       <c r="B324" s="2">
@@ -6886,8 +6891,8 @@
         <v>4741</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="3">
+    <row r="325" spans="1:6">
+      <c r="A325" s="4">
         <v>2026</v>
       </c>
       <c r="B325" s="2">
@@ -6906,8 +6911,8 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="3">
+    <row r="326" spans="1:6">
+      <c r="A326" s="4">
         <v>2026</v>
       </c>
       <c r="B326" s="2">
@@ -6926,8 +6931,8 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="3">
+    <row r="327" spans="1:6">
+      <c r="A327" s="4">
         <v>2026</v>
       </c>
       <c r="B327" s="2">
@@ -6946,8 +6951,8 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="3">
+    <row r="328" spans="1:6">
+      <c r="A328" s="4">
         <v>2026</v>
       </c>
       <c r="B328" s="2">
@@ -6966,8 +6971,8 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="3">
+    <row r="329" spans="1:6">
+      <c r="A329" s="4">
         <v>2026</v>
       </c>
       <c r="B329" s="2">
@@ -6986,8 +6991,8 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="3">
+    <row r="330" spans="1:6">
+      <c r="A330" s="4">
         <v>2026</v>
       </c>
       <c r="B330" s="2">
@@ -7006,8 +7011,8 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="3">
+    <row r="331" spans="1:6">
+      <c r="A331" s="4">
         <v>2026</v>
       </c>
       <c r="B331" s="2">
@@ -7026,8 +7031,8 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="3">
+    <row r="332" spans="1:6">
+      <c r="A332" s="4">
         <v>2026</v>
       </c>
       <c r="B332" s="2">
@@ -7046,8 +7051,8 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="3">
+    <row r="333" spans="1:6">
+      <c r="A333" s="4">
         <v>2026</v>
       </c>
       <c r="B333" s="2">
@@ -7066,8 +7071,8 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="3">
+    <row r="334" spans="1:6">
+      <c r="A334" s="4">
         <v>2026</v>
       </c>
       <c r="B334" s="2">
@@ -7086,8 +7091,8 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="3">
+    <row r="335" spans="1:6">
+      <c r="A335" s="4">
         <v>2026</v>
       </c>
       <c r="B335" s="2">
@@ -7106,8 +7111,8 @@
         <v>5075</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="3">
+    <row r="336" spans="1:6">
+      <c r="A336" s="4">
         <v>2026</v>
       </c>
       <c r="B336" s="2">
@@ -7126,8 +7131,8 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="3">
+    <row r="337" spans="1:6">
+      <c r="A337" s="4">
         <v>2026</v>
       </c>
       <c r="B337" s="2">
@@ -7146,8 +7151,8 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="3">
+    <row r="338" spans="1:6">
+      <c r="A338" s="4">
         <v>2026</v>
       </c>
       <c r="B338" s="2">
@@ -7166,8 +7171,8 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="3">
+    <row r="339" spans="1:6">
+      <c r="A339" s="4">
         <v>2027</v>
       </c>
       <c r="B339" s="2">
@@ -7186,8 +7191,8 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="3">
+    <row r="340" spans="1:6">
+      <c r="A340" s="4">
         <v>2027</v>
       </c>
       <c r="B340" s="2">
@@ -7206,8 +7211,8 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="3">
+    <row r="341" spans="1:6">
+      <c r="A341" s="4">
         <v>2027</v>
       </c>
       <c r="B341" s="2">
@@ -7226,8 +7231,8 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="3">
+    <row r="342" spans="1:6">
+      <c r="A342" s="4">
         <v>2027</v>
       </c>
       <c r="B342" s="2">
@@ -7246,8 +7251,8 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="3">
+    <row r="343" spans="1:6">
+      <c r="A343" s="4">
         <v>2027</v>
       </c>
       <c r="B343" s="2">
@@ -7266,8 +7271,8 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="3">
+    <row r="344" spans="1:6">
+      <c r="A344" s="4">
         <v>2027</v>
       </c>
       <c r="B344" s="2">
@@ -7286,8 +7291,8 @@
         <v>4347</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="3">
+    <row r="345" spans="1:6">
+      <c r="A345" s="4">
         <v>2027</v>
       </c>
       <c r="B345" s="2">
@@ -7306,8 +7311,8 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="3">
+    <row r="346" spans="1:6">
+      <c r="A346" s="4">
         <v>2027</v>
       </c>
       <c r="B346" s="2">
@@ -7326,8 +7331,8 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="3">
+    <row r="347" spans="1:6">
+      <c r="A347" s="4">
         <v>2027</v>
       </c>
       <c r="B347" s="2">
@@ -7346,8 +7351,8 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="3">
+    <row r="348" spans="1:6">
+      <c r="A348" s="4">
         <v>2027</v>
       </c>
       <c r="B348" s="2">
@@ -7366,8 +7371,8 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="3">
+    <row r="349" spans="1:6">
+      <c r="A349" s="4">
         <v>2027</v>
       </c>
       <c r="B349" s="2">
@@ -7386,8 +7391,8 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="3">
+    <row r="350" spans="1:6">
+      <c r="A350" s="4">
         <v>2027</v>
       </c>
       <c r="B350" s="2">
@@ -7406,8 +7411,8 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="3">
+    <row r="351" spans="1:6">
+      <c r="A351" s="4">
         <v>2027</v>
       </c>
       <c r="B351" s="2">
@@ -7426,8 +7431,8 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="3">
+    <row r="352" spans="1:6">
+      <c r="A352" s="4">
         <v>2027</v>
       </c>
       <c r="B352" s="2">
@@ -7446,8 +7451,8 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="3">
+    <row r="353" spans="1:6">
+      <c r="A353" s="4">
         <v>2027</v>
       </c>
       <c r="B353" s="2">
@@ -7466,8 +7471,8 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="3">
+    <row r="354" spans="1:6">
+      <c r="A354" s="4">
         <v>2027</v>
       </c>
       <c r="B354" s="2">
@@ -7486,8 +7491,8 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="3">
+    <row r="355" spans="1:6">
+      <c r="A355" s="4">
         <v>2027</v>
       </c>
       <c r="B355" s="2">
@@ -7506,8 +7511,8 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="3">
+    <row r="356" spans="1:6">
+      <c r="A356" s="4">
         <v>2027</v>
       </c>
       <c r="B356" s="2">
@@ -7526,8 +7531,8 @@
         <v>4634</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" s="3">
+    <row r="357" spans="1:6">
+      <c r="A357" s="4">
         <v>2027</v>
       </c>
       <c r="B357" s="2">
@@ -7546,8 +7551,8 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" s="3">
+    <row r="358" spans="1:6">
+      <c r="A358" s="4">
         <v>2027</v>
       </c>
       <c r="B358" s="2">
@@ -7566,8 +7571,8 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="3">
+    <row r="359" spans="1:6">
+      <c r="A359" s="4">
         <v>2027</v>
       </c>
       <c r="B359" s="2">
@@ -7586,8 +7591,8 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" s="3">
+    <row r="360" spans="1:6">
+      <c r="A360" s="4">
         <v>2027</v>
       </c>
       <c r="B360" s="2">
@@ -7606,8 +7611,8 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="3">
+    <row r="361" spans="1:6">
+      <c r="A361" s="4">
         <v>2027</v>
       </c>
       <c r="B361" s="2">
@@ -7626,8 +7631,8 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="3">
+    <row r="362" spans="1:6">
+      <c r="A362" s="4">
         <v>2027</v>
       </c>
       <c r="B362" s="2">
@@ -7646,8 +7651,8 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363" s="3">
+    <row r="363" spans="1:6">
+      <c r="A363" s="4">
         <v>2027</v>
       </c>
       <c r="B363" s="2">
@@ -7666,8 +7671,8 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="3">
+    <row r="364" spans="1:6">
+      <c r="A364" s="4">
         <v>2027</v>
       </c>
       <c r="B364" s="2">
@@ -7686,8 +7691,8 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="3">
+    <row r="365" spans="1:6">
+      <c r="A365" s="4">
         <v>2027</v>
       </c>
       <c r="B365" s="2">
@@ -7706,8 +7711,8 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" s="3">
+    <row r="366" spans="1:6">
+      <c r="A366" s="4">
         <v>2027</v>
       </c>
       <c r="B366" s="2">
@@ -7726,8 +7731,8 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="3">
+    <row r="367" spans="1:6">
+      <c r="A367" s="4">
         <v>2027</v>
       </c>
       <c r="B367" s="2">
@@ -7746,8 +7751,8 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="3">
+    <row r="368" spans="1:6">
+      <c r="A368" s="4">
         <v>2027</v>
       </c>
       <c r="B368" s="2">
@@ -7766,8 +7771,8 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A369" s="3">
+    <row r="369" spans="1:6">
+      <c r="A369" s="4">
         <v>2027</v>
       </c>
       <c r="B369" s="2">
@@ -7786,8 +7791,8 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A370" s="3">
+    <row r="370" spans="1:6">
+      <c r="A370" s="4">
         <v>2027</v>
       </c>
       <c r="B370" s="2">
@@ -7806,8 +7811,8 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A371" s="3">
+    <row r="371" spans="1:6">
+      <c r="A371" s="4">
         <v>2027</v>
       </c>
       <c r="B371" s="2">
@@ -7826,8 +7831,8 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" s="3">
+    <row r="372" spans="1:6">
+      <c r="A372" s="4">
         <v>2027</v>
       </c>
       <c r="B372" s="2">
@@ -7846,8 +7851,8 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="3">
+    <row r="373" spans="1:6">
+      <c r="A373" s="4">
         <v>2027</v>
       </c>
       <c r="B373" s="2">
@@ -7866,8 +7871,8 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374" s="3">
+    <row r="374" spans="1:6">
+      <c r="A374" s="4">
         <v>2027</v>
       </c>
       <c r="B374" s="2">
@@ -7886,8 +7891,8 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" s="3">
+    <row r="375" spans="1:6">
+      <c r="A375" s="4">
         <v>2027</v>
       </c>
       <c r="B375" s="2">
@@ -7906,8 +7911,8 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376" s="3">
+    <row r="376" spans="1:6">
+      <c r="A376" s="4">
         <v>2027</v>
       </c>
       <c r="B376" s="2">
@@ -7926,8 +7931,8 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377" s="3">
+    <row r="377" spans="1:6">
+      <c r="A377" s="4">
         <v>2027</v>
       </c>
       <c r="B377" s="2">
@@ -7946,8 +7951,8 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378" s="3">
+    <row r="378" spans="1:6">
+      <c r="A378" s="4">
         <v>2027</v>
       </c>
       <c r="B378" s="2">
@@ -7966,8 +7971,8 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="3">
+    <row r="379" spans="1:6">
+      <c r="A379" s="4">
         <v>2027</v>
       </c>
       <c r="B379" s="2">
@@ -7986,8 +7991,8 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="3">
+    <row r="380" spans="1:6">
+      <c r="A380" s="4">
         <v>2027</v>
       </c>
       <c r="B380" s="2">
@@ -8006,8 +8011,8 @@
         <v>4716</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="3">
+    <row r="381" spans="1:6">
+      <c r="A381" s="4">
         <v>2027</v>
       </c>
       <c r="B381" s="2">
@@ -8026,8 +8031,8 @@
         <v>5097</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382" s="3">
+    <row r="382" spans="1:6">
+      <c r="A382" s="4">
         <v>2027</v>
       </c>
       <c r="B382" s="2">
@@ -8046,8 +8051,8 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383" s="3">
+    <row r="383" spans="1:6">
+      <c r="A383" s="4">
         <v>2027</v>
       </c>
       <c r="B383" s="2">
@@ -8066,8 +8071,8 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384" s="3">
+    <row r="384" spans="1:6">
+      <c r="A384" s="4">
         <v>2027</v>
       </c>
       <c r="B384" s="2">
@@ -8086,8 +8091,8 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="3">
+    <row r="385" spans="1:6">
+      <c r="A385" s="4">
         <v>2027</v>
       </c>
       <c r="B385" s="2">
@@ -8106,8 +8111,8 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="3">
+    <row r="386" spans="1:6">
+      <c r="A386" s="4">
         <v>2027</v>
       </c>
       <c r="B386" s="2">
@@ -8126,8 +8131,8 @@
         <v>4791</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="3">
+    <row r="387" spans="1:6">
+      <c r="A387" s="4">
         <v>2028</v>
       </c>
       <c r="B387" s="2">
@@ -8146,8 +8151,8 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388" s="3">
+    <row r="388" spans="1:6">
+      <c r="A388" s="4">
         <v>2028</v>
       </c>
       <c r="B388" s="2">
@@ -8166,8 +8171,8 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="3">
+    <row r="389" spans="1:6">
+      <c r="A389" s="4">
         <v>2028</v>
       </c>
       <c r="B389" s="2">
@@ -8186,8 +8191,8 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390" s="3">
+    <row r="390" spans="1:6">
+      <c r="A390" s="4">
         <v>2028</v>
       </c>
       <c r="B390" s="2">
@@ -8206,8 +8211,8 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391" s="3">
+    <row r="391" spans="1:6">
+      <c r="A391" s="4">
         <v>2028</v>
       </c>
       <c r="B391" s="2">
@@ -8226,8 +8231,8 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392" s="3">
+    <row r="392" spans="1:6">
+      <c r="A392" s="4">
         <v>2028</v>
       </c>
       <c r="B392" s="2">
@@ -8246,8 +8251,8 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="3">
+    <row r="393" spans="1:6">
+      <c r="A393" s="4">
         <v>2028</v>
       </c>
       <c r="B393" s="2">
@@ -8266,8 +8271,8 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" s="3">
+    <row r="394" spans="1:6">
+      <c r="A394" s="4">
         <v>2028</v>
       </c>
       <c r="B394" s="2">
@@ -8286,8 +8291,8 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395" s="3">
+    <row r="395" spans="1:6">
+      <c r="A395" s="4">
         <v>2028</v>
       </c>
       <c r="B395" s="2">
@@ -8306,8 +8311,8 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396" s="3">
+    <row r="396" spans="1:6">
+      <c r="A396" s="4">
         <v>2028</v>
       </c>
       <c r="B396" s="2">
@@ -8326,8 +8331,8 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397" s="3">
+    <row r="397" spans="1:6">
+      <c r="A397" s="4">
         <v>2028</v>
       </c>
       <c r="B397" s="2">
@@ -8346,8 +8351,8 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398" s="3">
+    <row r="398" spans="1:6">
+      <c r="A398" s="4">
         <v>2028</v>
       </c>
       <c r="B398" s="2">
@@ -8366,8 +8371,8 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399" s="3">
+    <row r="399" spans="1:6">
+      <c r="A399" s="4">
         <v>2028</v>
       </c>
       <c r="B399" s="2">
@@ -8386,8 +8391,8 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="3">
+    <row r="400" spans="1:6">
+      <c r="A400" s="4">
         <v>2028</v>
       </c>
       <c r="B400" s="2">
@@ -8406,8 +8411,8 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="3">
+    <row r="401" spans="1:6">
+      <c r="A401" s="4">
         <v>2028</v>
       </c>
       <c r="B401" s="2">
@@ -8426,8 +8431,8 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402" s="3">
+    <row r="402" spans="1:6">
+      <c r="A402" s="4">
         <v>2028</v>
       </c>
       <c r="B402" s="2">
@@ -8446,8 +8451,8 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403" s="3">
+    <row r="403" spans="1:6">
+      <c r="A403" s="4">
         <v>2028</v>
       </c>
       <c r="B403" s="2">
@@ -8466,8 +8471,8 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404" s="3">
+    <row r="404" spans="1:6">
+      <c r="A404" s="4">
         <v>2028</v>
       </c>
       <c r="B404" s="2">
@@ -8486,8 +8491,8 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405" s="3">
+    <row r="405" spans="1:6">
+      <c r="A405" s="4">
         <v>2028</v>
       </c>
       <c r="B405" s="2">
@@ -8506,8 +8511,8 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A406" s="3">
+    <row r="406" spans="1:6">
+      <c r="A406" s="4">
         <v>2028</v>
       </c>
       <c r="B406" s="2">
@@ -8526,8 +8531,8 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A407" s="3">
+    <row r="407" spans="1:6">
+      <c r="A407" s="4">
         <v>2028</v>
       </c>
       <c r="B407" s="2">
@@ -8546,8 +8551,8 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A408" s="3">
+    <row r="408" spans="1:6">
+      <c r="A408" s="4">
         <v>2028</v>
       </c>
       <c r="B408" s="2">
@@ -8566,8 +8571,8 @@
         <v>5030</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A409" s="3">
+    <row r="409" spans="1:6">
+      <c r="A409" s="4">
         <v>2028</v>
       </c>
       <c r="B409" s="2">
@@ -8586,8 +8591,8 @@
         <v>4952</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A410" s="3">
+    <row r="410" spans="1:6">
+      <c r="A410" s="4">
         <v>2028</v>
       </c>
       <c r="B410" s="2">
@@ -8606,8 +8611,8 @@
         <v>4789</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A411" s="3">
+    <row r="411" spans="1:6">
+      <c r="A411" s="4">
         <v>2028</v>
       </c>
       <c r="B411" s="2">
@@ -8626,8 +8631,8 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412" s="3">
+    <row r="412" spans="1:6">
+      <c r="A412" s="4">
         <v>2028</v>
       </c>
       <c r="B412" s="2">
@@ -8646,8 +8651,8 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="3">
+    <row r="413" spans="1:6">
+      <c r="A413" s="4">
         <v>2028</v>
       </c>
       <c r="B413" s="2">
@@ -8666,8 +8671,8 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="3">
+    <row r="414" spans="1:6">
+      <c r="A414" s="4">
         <v>2028</v>
       </c>
       <c r="B414" s="2">
@@ -8686,8 +8691,8 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="3">
+    <row r="415" spans="1:6">
+      <c r="A415" s="4">
         <v>2028</v>
       </c>
       <c r="B415" s="2">
@@ -8706,8 +8711,8 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="3">
+    <row r="416" spans="1:6">
+      <c r="A416" s="4">
         <v>2028</v>
       </c>
       <c r="B416" s="2">
@@ -8726,8 +8731,8 @@
         <v>4517</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417" s="3">
+    <row r="417" spans="1:6">
+      <c r="A417" s="4">
         <v>2028</v>
       </c>
       <c r="B417" s="2">
@@ -8746,8 +8751,8 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="3">
+    <row r="418" spans="1:6">
+      <c r="A418" s="4">
         <v>2028</v>
       </c>
       <c r="B418" s="2">
@@ -8766,8 +8771,8 @@
         <v>4927</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="3">
+    <row r="419" spans="1:6">
+      <c r="A419" s="4">
         <v>2028</v>
       </c>
       <c r="B419" s="2">
@@ -8786,8 +8791,8 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="3">
+    <row r="420" spans="1:6">
+      <c r="A420" s="4">
         <v>2028</v>
       </c>
       <c r="B420" s="2">
@@ -8806,8 +8811,8 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="3">
+    <row r="421" spans="1:6">
+      <c r="A421" s="4">
         <v>2028</v>
       </c>
       <c r="B421" s="2">
@@ -8826,8 +8831,8 @@
         <v>4788</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="3">
+    <row r="422" spans="1:6">
+      <c r="A422" s="4">
         <v>2028</v>
       </c>
       <c r="B422" s="2">
@@ -8846,8 +8851,8 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="3">
+    <row r="423" spans="1:6">
+      <c r="A423" s="4">
         <v>2028</v>
       </c>
       <c r="B423" s="2">
@@ -8866,8 +8871,8 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" s="3">
+    <row r="424" spans="1:6">
+      <c r="A424" s="4">
         <v>2028</v>
       </c>
       <c r="B424" s="2">
@@ -8886,8 +8891,8 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" s="3">
+    <row r="425" spans="1:6">
+      <c r="A425" s="4">
         <v>2028</v>
       </c>
       <c r="B425" s="2">
@@ -8906,8 +8911,8 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" s="3">
+    <row r="426" spans="1:6">
+      <c r="A426" s="4">
         <v>2028</v>
       </c>
       <c r="B426" s="2">
@@ -8926,8 +8931,8 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" s="3">
+    <row r="427" spans="1:6">
+      <c r="A427" s="4">
         <v>2028</v>
       </c>
       <c r="B427" s="2">
@@ -8946,8 +8951,8 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428" s="3">
+    <row r="428" spans="1:6">
+      <c r="A428" s="4">
         <v>2028</v>
       </c>
       <c r="B428" s="2">
@@ -8966,8 +8971,8 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A429" s="3">
+    <row r="429" spans="1:6">
+      <c r="A429" s="4">
         <v>2028</v>
       </c>
       <c r="B429" s="2">
@@ -8986,8 +8991,8 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430" s="3">
+    <row r="430" spans="1:6">
+      <c r="A430" s="4">
         <v>2028</v>
       </c>
       <c r="B430" s="2">
@@ -9006,8 +9011,8 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431" s="3">
+    <row r="431" spans="1:6">
+      <c r="A431" s="4">
         <v>2028</v>
       </c>
       <c r="B431" s="2">
@@ -9026,8 +9031,8 @@
         <v>5229</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" s="3">
+    <row r="432" spans="1:6">
+      <c r="A432" s="4">
         <v>2028</v>
       </c>
       <c r="B432" s="2">
@@ -9046,8 +9051,8 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A433" s="3">
+    <row r="433" spans="1:6">
+      <c r="A433" s="4">
         <v>2028</v>
       </c>
       <c r="B433" s="2">
@@ -9066,8 +9071,8 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A434" s="3">
+    <row r="434" spans="1:6">
+      <c r="A434" s="4">
         <v>2028</v>
       </c>
       <c r="B434" s="2">
@@ -9086,8 +9091,8 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A435" s="3">
+    <row r="435" spans="1:6">
+      <c r="A435" s="4">
         <v>2029</v>
       </c>
       <c r="B435" s="2">
@@ -9106,8 +9111,8 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A436" s="3">
+    <row r="436" spans="1:6">
+      <c r="A436" s="4">
         <v>2029</v>
       </c>
       <c r="B436" s="2">
@@ -9126,8 +9131,8 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A437" s="3">
+    <row r="437" spans="1:6">
+      <c r="A437" s="4">
         <v>2029</v>
       </c>
       <c r="B437" s="2">
@@ -9146,8 +9151,8 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A438" s="3">
+    <row r="438" spans="1:6">
+      <c r="A438" s="4">
         <v>2029</v>
       </c>
       <c r="B438" s="2">
@@ -9166,8 +9171,8 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A439" s="3">
+    <row r="439" spans="1:6">
+      <c r="A439" s="4">
         <v>2029</v>
       </c>
       <c r="B439" s="2">
@@ -9186,8 +9191,8 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A440" s="3">
+    <row r="440" spans="1:6">
+      <c r="A440" s="4">
         <v>2029</v>
       </c>
       <c r="B440" s="2">
@@ -9206,8 +9211,8 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A441" s="3">
+    <row r="441" spans="1:6">
+      <c r="A441" s="4">
         <v>2029</v>
       </c>
       <c r="B441" s="2">
@@ -9226,8 +9231,8 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A442" s="3">
+    <row r="442" spans="1:6">
+      <c r="A442" s="4">
         <v>2029</v>
       </c>
       <c r="B442" s="2">
@@ -9246,8 +9251,8 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A443" s="3">
+    <row r="443" spans="1:6">
+      <c r="A443" s="4">
         <v>2029</v>
       </c>
       <c r="B443" s="2">
@@ -9266,8 +9271,8 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A444" s="3">
+    <row r="444" spans="1:6">
+      <c r="A444" s="4">
         <v>2029</v>
       </c>
       <c r="B444" s="2">
@@ -9286,8 +9291,8 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A445" s="3">
+    <row r="445" spans="1:6">
+      <c r="A445" s="4">
         <v>2029</v>
       </c>
       <c r="B445" s="2">
@@ -9306,8 +9311,8 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A446" s="3">
+    <row r="446" spans="1:6">
+      <c r="A446" s="4">
         <v>2029</v>
       </c>
       <c r="B446" s="2">
@@ -9326,8 +9331,8 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A447" s="3">
+    <row r="447" spans="1:6">
+      <c r="A447" s="4">
         <v>2029</v>
       </c>
       <c r="B447" s="2">
@@ -9346,8 +9351,8 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A448" s="3">
+    <row r="448" spans="1:6">
+      <c r="A448" s="4">
         <v>2029</v>
       </c>
       <c r="B448" s="2">
@@ -9366,8 +9371,8 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A449" s="3">
+    <row r="449" spans="1:6">
+      <c r="A449" s="4">
         <v>2029</v>
       </c>
       <c r="B449" s="2">
@@ -9386,8 +9391,8 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A450" s="3">
+    <row r="450" spans="1:6">
+      <c r="A450" s="4">
         <v>2029</v>
       </c>
       <c r="B450" s="2">
@@ -9406,8 +9411,8 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A451" s="3">
+    <row r="451" spans="1:6">
+      <c r="A451" s="4">
         <v>2029</v>
       </c>
       <c r="B451" s="2">
@@ -9426,8 +9431,8 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A452" s="3">
+    <row r="452" spans="1:6">
+      <c r="A452" s="4">
         <v>2029</v>
       </c>
       <c r="B452" s="2">
@@ -9446,8 +9451,8 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A453" s="3">
+    <row r="453" spans="1:6">
+      <c r="A453" s="4">
         <v>2029</v>
       </c>
       <c r="B453" s="2">
@@ -9466,8 +9471,8 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A454" s="3">
+    <row r="454" spans="1:6">
+      <c r="A454" s="4">
         <v>2029</v>
       </c>
       <c r="B454" s="2">
@@ -9486,8 +9491,8 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A455" s="3">
+    <row r="455" spans="1:6">
+      <c r="A455" s="4">
         <v>2029</v>
       </c>
       <c r="B455" s="2">
@@ -9506,8 +9511,8 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A456" s="3">
+    <row r="456" spans="1:6">
+      <c r="A456" s="4">
         <v>2029</v>
       </c>
       <c r="B456" s="2">
@@ -9526,8 +9531,8 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A457" s="3">
+    <row r="457" spans="1:6">
+      <c r="A457" s="4">
         <v>2029</v>
       </c>
       <c r="B457" s="2">
@@ -9546,8 +9551,8 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A458" s="3">
+    <row r="458" spans="1:6">
+      <c r="A458" s="4">
         <v>2029</v>
       </c>
       <c r="B458" s="2">
@@ -9566,8 +9571,8 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A459" s="3">
+    <row r="459" spans="1:6">
+      <c r="A459" s="4">
         <v>2029</v>
       </c>
       <c r="B459" s="2">
@@ -9586,8 +9591,8 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A460" s="3">
+    <row r="460" spans="1:6">
+      <c r="A460" s="4">
         <v>2029</v>
       </c>
       <c r="B460" s="2">
@@ -9606,8 +9611,8 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A461" s="3">
+    <row r="461" spans="1:6">
+      <c r="A461" s="4">
         <v>2029</v>
       </c>
       <c r="B461" s="2">
@@ -9626,8 +9631,8 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A462" s="3">
+    <row r="462" spans="1:6">
+      <c r="A462" s="4">
         <v>2029</v>
       </c>
       <c r="B462" s="2">
@@ -9646,8 +9651,8 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A463" s="3">
+    <row r="463" spans="1:6">
+      <c r="A463" s="4">
         <v>2029</v>
       </c>
       <c r="B463" s="2">
@@ -9666,8 +9671,8 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A464" s="3">
+    <row r="464" spans="1:6">
+      <c r="A464" s="4">
         <v>2029</v>
       </c>
       <c r="B464" s="2">
@@ -9686,8 +9691,8 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A465" s="3">
+    <row r="465" spans="1:6">
+      <c r="A465" s="4">
         <v>2029</v>
       </c>
       <c r="B465" s="2">
@@ -9706,8 +9711,8 @@
         <v>4789</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A466" s="3">
+    <row r="466" spans="1:6">
+      <c r="A466" s="4">
         <v>2029</v>
       </c>
       <c r="B466" s="2">
@@ -9726,8 +9731,8 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A467" s="3">
+    <row r="467" spans="1:6">
+      <c r="A467" s="4">
         <v>2029</v>
       </c>
       <c r="B467" s="2">
@@ -9746,8 +9751,8 @@
         <v>5017</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A468" s="3">
+    <row r="468" spans="1:6">
+      <c r="A468" s="4">
         <v>2029</v>
       </c>
       <c r="B468" s="2">
@@ -9766,8 +9771,8 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A469" s="3">
+    <row r="469" spans="1:6">
+      <c r="A469" s="4">
         <v>2029</v>
       </c>
       <c r="B469" s="2">
@@ -9786,8 +9791,8 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A470" s="3">
+    <row r="470" spans="1:6">
+      <c r="A470" s="4">
         <v>2029</v>
       </c>
       <c r="B470" s="2">
@@ -9806,8 +9811,8 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A471" s="3">
+    <row r="471" spans="1:6">
+      <c r="A471" s="4">
         <v>2029</v>
       </c>
       <c r="B471" s="2">
@@ -9826,8 +9831,8 @@
         <v>4657</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A472" s="3">
+    <row r="472" spans="1:6">
+      <c r="A472" s="4">
         <v>2029</v>
       </c>
       <c r="B472" s="2">
@@ -9846,8 +9851,8 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A473" s="3">
+    <row r="473" spans="1:6">
+      <c r="A473" s="4">
         <v>2029</v>
       </c>
       <c r="B473" s="2">
@@ -9866,8 +9871,8 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A474" s="3">
+    <row r="474" spans="1:6">
+      <c r="A474" s="4">
         <v>2029</v>
       </c>
       <c r="B474" s="2">
@@ -9886,8 +9891,8 @@
         <v>4469</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A475" s="3">
+    <row r="475" spans="1:6">
+      <c r="A475" s="4">
         <v>2029</v>
       </c>
       <c r="B475" s="2">
@@ -9906,8 +9911,8 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A476" s="3">
+    <row r="476" spans="1:6">
+      <c r="A476" s="4">
         <v>2029</v>
       </c>
       <c r="B476" s="2">
@@ -9926,8 +9931,8 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A477" s="3">
+    <row r="477" spans="1:6">
+      <c r="A477" s="4">
         <v>2029</v>
       </c>
       <c r="B477" s="2">
@@ -9946,8 +9951,8 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A478" s="3">
+    <row r="478" spans="1:6">
+      <c r="A478" s="4">
         <v>2029</v>
       </c>
       <c r="B478" s="2">
@@ -9966,8 +9971,8 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A479" s="3">
+    <row r="479" spans="1:6">
+      <c r="A479" s="4">
         <v>2029</v>
       </c>
       <c r="B479" s="2">
@@ -9986,8 +9991,8 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A480" s="3">
+    <row r="480" spans="1:6">
+      <c r="A480" s="4">
         <v>2029</v>
       </c>
       <c r="B480" s="2">
@@ -10006,8 +10011,8 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A481" s="3">
+    <row r="481" spans="1:6">
+      <c r="A481" s="4">
         <v>2029</v>
       </c>
       <c r="B481" s="2">
@@ -10026,8 +10031,8 @@
         <v>5131</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A482" s="3">
+    <row r="482" spans="1:6">
+      <c r="A482" s="4">
         <v>2029</v>
       </c>
       <c r="B482" s="2">
@@ -10046,8 +10051,8 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A483" s="3">
+    <row r="483" spans="1:6">
+      <c r="A483" s="4">
         <v>2030</v>
       </c>
       <c r="B483" s="2">
@@ -10066,8 +10071,8 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A484" s="3">
+    <row r="484" spans="1:6">
+      <c r="A484" s="4">
         <v>2030</v>
       </c>
       <c r="B484" s="2">
@@ -10086,8 +10091,8 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A485" s="3">
+    <row r="485" spans="1:6">
+      <c r="A485" s="4">
         <v>2030</v>
       </c>
       <c r="B485" s="2">
@@ -10106,8 +10111,8 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A486" s="3">
+    <row r="486" spans="1:6">
+      <c r="A486" s="4">
         <v>2030</v>
       </c>
       <c r="B486" s="2">
@@ -10126,8 +10131,8 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A487" s="3">
+    <row r="487" spans="1:6">
+      <c r="A487" s="4">
         <v>2030</v>
       </c>
       <c r="B487" s="2">
@@ -10146,8 +10151,8 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A488" s="3">
+    <row r="488" spans="1:6">
+      <c r="A488" s="4">
         <v>2030</v>
       </c>
       <c r="B488" s="2">
@@ -10166,8 +10171,8 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A489" s="3">
+    <row r="489" spans="1:6">
+      <c r="A489" s="4">
         <v>2030</v>
       </c>
       <c r="B489" s="2">
@@ -10186,8 +10191,8 @@
         <v>4618</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A490" s="3">
+    <row r="490" spans="1:6">
+      <c r="A490" s="4">
         <v>2030</v>
       </c>
       <c r="B490" s="2">
@@ -10206,8 +10211,8 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A491" s="3">
+    <row r="491" spans="1:6">
+      <c r="A491" s="4">
         <v>2030</v>
       </c>
       <c r="B491" s="2">
@@ -10226,8 +10231,8 @@
         <v>4606</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A492" s="3">
+    <row r="492" spans="1:6">
+      <c r="A492" s="4">
         <v>2030</v>
       </c>
       <c r="B492" s="2">
@@ -10246,8 +10251,8 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A493" s="3">
+    <row r="493" spans="1:6">
+      <c r="A493" s="4">
         <v>2030</v>
       </c>
       <c r="B493" s="2">
@@ -10266,8 +10271,8 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A494" s="3">
+    <row r="494" spans="1:6">
+      <c r="A494" s="4">
         <v>2030</v>
       </c>
       <c r="B494" s="2">
@@ -10286,8 +10291,8 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A495" s="3">
+    <row r="495" spans="1:6">
+      <c r="A495" s="4">
         <v>2030</v>
       </c>
       <c r="B495" s="2">
@@ -10306,8 +10311,8 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A496" s="3">
+    <row r="496" spans="1:6">
+      <c r="A496" s="4">
         <v>2030</v>
       </c>
       <c r="B496" s="2">
@@ -10326,8 +10331,8 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A497" s="3">
+    <row r="497" spans="1:6">
+      <c r="A497" s="4">
         <v>2030</v>
       </c>
       <c r="B497" s="2">
@@ -10346,8 +10351,8 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A498" s="3">
+    <row r="498" spans="1:6">
+      <c r="A498" s="4">
         <v>2030</v>
       </c>
       <c r="B498" s="2">
@@ -10366,8 +10371,8 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A499" s="3">
+    <row r="499" spans="1:6">
+      <c r="A499" s="4">
         <v>2030</v>
       </c>
       <c r="B499" s="2">
@@ -10386,8 +10391,8 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A500" s="3">
+    <row r="500" spans="1:6">
+      <c r="A500" s="4">
         <v>2030</v>
       </c>
       <c r="B500" s="2">
@@ -10406,8 +10411,8 @@
         <v>4846</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A501" s="3">
+    <row r="501" spans="1:6">
+      <c r="A501" s="4">
         <v>2030</v>
       </c>
       <c r="B501" s="2">
@@ -10426,8 +10431,8 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A502" s="3">
+    <row r="502" spans="1:6">
+      <c r="A502" s="4">
         <v>2030</v>
       </c>
       <c r="B502" s="2">
@@ -10446,8 +10451,8 @@
         <v>5249</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A503" s="3">
+    <row r="503" spans="1:6">
+      <c r="A503" s="4">
         <v>2030</v>
       </c>
       <c r="B503" s="2">
@@ -10466,8 +10471,8 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A504" s="3">
+    <row r="504" spans="1:6">
+      <c r="A504" s="4">
         <v>2030</v>
       </c>
       <c r="B504" s="2">
@@ -10486,8 +10491,8 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A505" s="3">
+    <row r="505" spans="1:6">
+      <c r="A505" s="4">
         <v>2030</v>
       </c>
       <c r="B505" s="2">
@@ -10506,8 +10511,8 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A506" s="3">
+    <row r="506" spans="1:6">
+      <c r="A506" s="4">
         <v>2030</v>
       </c>
       <c r="B506" s="2">
@@ -10526,8 +10531,8 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A507" s="3">
+    <row r="507" spans="1:6">
+      <c r="A507" s="4">
         <v>2030</v>
       </c>
       <c r="B507" s="2">
@@ -10546,8 +10551,8 @@
         <v>4788</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A508" s="3">
+    <row r="508" spans="1:6">
+      <c r="A508" s="4">
         <v>2030</v>
       </c>
       <c r="B508" s="2">
@@ -10566,8 +10571,8 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A509" s="3">
+    <row r="509" spans="1:6">
+      <c r="A509" s="4">
         <v>2030</v>
       </c>
       <c r="B509" s="2">
@@ -10586,8 +10591,8 @@
         <v>4589</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A510" s="3">
+    <row r="510" spans="1:6">
+      <c r="A510" s="4">
         <v>2030</v>
       </c>
       <c r="B510" s="2">
@@ -10606,8 +10611,8 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A511" s="3">
+    <row r="511" spans="1:6">
+      <c r="A511" s="4">
         <v>2030</v>
       </c>
       <c r="B511" s="2">
@@ -10626,8 +10631,8 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A512" s="3">
+    <row r="512" spans="1:6">
+      <c r="A512" s="4">
         <v>2030</v>
       </c>
       <c r="B512" s="2">
@@ -10646,8 +10651,8 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A513" s="3">
+    <row r="513" spans="1:6">
+      <c r="A513" s="4">
         <v>2030</v>
       </c>
       <c r="B513" s="2">
@@ -10666,8 +10671,8 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A514" s="3">
+    <row r="514" spans="1:6">
+      <c r="A514" s="4">
         <v>2030</v>
       </c>
       <c r="B514" s="2">
@@ -10686,8 +10691,8 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A515" s="3">
+    <row r="515" spans="1:6">
+      <c r="A515" s="4">
         <v>2030</v>
       </c>
       <c r="B515" s="2">
@@ -10706,8 +10711,8 @@
         <v>5092</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A516" s="3">
+    <row r="516" spans="1:6">
+      <c r="A516" s="4">
         <v>2030</v>
       </c>
       <c r="B516" s="2">
@@ -10726,8 +10731,8 @@
         <v>5032</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A517" s="3">
+    <row r="517" spans="1:6">
+      <c r="A517" s="4">
         <v>2030</v>
       </c>
       <c r="B517" s="2">
@@ -10746,8 +10751,8 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A518" s="3">
+    <row r="518" spans="1:6">
+      <c r="A518" s="4">
         <v>2030</v>
       </c>
       <c r="B518" s="2">
@@ -10766,8 +10771,8 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A519" s="3">
+    <row r="519" spans="1:6">
+      <c r="A519" s="4">
         <v>2030</v>
       </c>
       <c r="B519" s="2">
@@ -10786,8 +10791,8 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A520" s="3">
+    <row r="520" spans="1:6">
+      <c r="A520" s="4">
         <v>2030</v>
       </c>
       <c r="B520" s="2">
@@ -10806,8 +10811,8 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A521" s="3">
+    <row r="521" spans="1:6">
+      <c r="A521" s="4">
         <v>2030</v>
       </c>
       <c r="B521" s="2">
@@ -10826,8 +10831,8 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A522" s="3">
+    <row r="522" spans="1:6">
+      <c r="A522" s="4">
         <v>2030</v>
       </c>
       <c r="B522" s="2">
@@ -10846,8 +10851,8 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A523" s="3">
+    <row r="523" spans="1:6">
+      <c r="A523" s="4">
         <v>2030</v>
       </c>
       <c r="B523" s="2">
@@ -10866,8 +10871,8 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A524" s="3">
+    <row r="524" spans="1:6">
+      <c r="A524" s="4">
         <v>2030</v>
       </c>
       <c r="B524" s="2">
@@ -10886,8 +10891,8 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A525" s="3">
+    <row r="525" spans="1:6">
+      <c r="A525" s="4">
         <v>2030</v>
       </c>
       <c r="B525" s="2">
@@ -10906,8 +10911,8 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A526" s="3">
+    <row r="526" spans="1:6">
+      <c r="A526" s="4">
         <v>2030</v>
       </c>
       <c r="B526" s="2">
@@ -10926,8 +10931,8 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A527" s="3">
+    <row r="527" spans="1:6">
+      <c r="A527" s="4">
         <v>2030</v>
       </c>
       <c r="B527" s="2">
@@ -10946,8 +10951,8 @@
         <v>5387</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A528" s="3">
+    <row r="528" spans="1:6">
+      <c r="A528" s="4">
         <v>2030</v>
       </c>
       <c r="B528" s="2">
@@ -10966,8 +10971,8 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A529" s="3">
+    <row r="529" spans="1:6">
+      <c r="A529" s="4">
         <v>2030</v>
       </c>
       <c r="B529" s="2">
@@ -10986,8 +10991,8 @@
         <v>5208</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A530" s="3">
+    <row r="530" spans="1:6">
+      <c r="A530" s="4">
         <v>2030</v>
       </c>
       <c r="B530" s="2">
